--- a/Opções.xlsx
+++ b/Opções.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bibliotecas\Documents\GitHub\detect19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bibliotecas\Documents\NetBeansProjects\detect19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6FED0D7-7001-4BE4-905B-508882CC2F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E4871B-3865-4103-B6F3-699BFC89EE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18000" windowHeight="9480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>Motor</t>
   </si>
@@ -226,15 +226,9 @@
     <t>Dor de Cabeça</t>
   </si>
   <si>
-    <t>1,0,0,1,1</t>
-  </si>
-  <si>
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>1,0,1,1,0</t>
-  </si>
-  <si>
     <t>0,0,0,0,0</t>
   </si>
   <si>
@@ -242,6 +236,15 @@
   </si>
   <si>
     <t>Combinação</t>
+  </si>
+  <si>
+    <t>1,0,0,1,1/1,0,0,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,1,0/1,0,0,1,0</t>
+  </si>
+  <si>
+    <t>1/0</t>
   </si>
 </sst>
 </file>
@@ -784,7 +787,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,8 +860,8 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
+      <c r="D4" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -868,8 +871,8 @@
       <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
+      <c r="B5" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -900,7 +903,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>15</v>
@@ -917,19 +920,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
